--- a/example1/resources/Appariement.xlsx
+++ b/example1/resources/Appariement.xlsx
@@ -337,8 +337,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -426,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>6</v>

--- a/example1/resources/Appariement.xlsx
+++ b/example1/resources/Appariement.xlsx
@@ -20,21 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t xml:space="preserve">Patient</t>
   </si>
   <si>
-    <t xml:space="preserve">DN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_A_E</t>
+    <t xml:space="preserve">Sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
   </si>
   <si>
     <t xml:space="preserve">Control</t>
   </si>
   <si>
-    <t xml:space="preserve">M_38_12</t>
+    <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">LCL</t>
@@ -46,17 +49,18 @@
     <t xml:space="preserve">STROOP</t>
   </si>
   <si>
-    <t xml:space="preserve">F_32_10</t>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -98,13 +102,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -129,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -167,13 +171,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
@@ -205,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,11 +223,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,19 +235,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,18 +324,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -356,28 +345,37 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="G1" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -385,152 +383,111 @@
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="12"/>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/example1/resources/Appariement.xlsx
+++ b/example1/resources/Appariement.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t xml:space="preserve">Patient</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT</t>
   </si>
 </sst>
 </file>
@@ -324,10 +321,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,26 +464,6 @@
         <v>7</v>
       </c>
       <c r="P3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
